--- a/LSTM_result -2(最完整版) - GJR.xlsx
+++ b/LSTM_result -2(最完整版) - GJR.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6EAB76-9D05-48ED-A3BC-F8D4E4E5484F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0B0452-28A8-4159-8C1B-B8C28BF0F912}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CSI300" sheetId="1" r:id="rId1"/>
-    <sheet name="SSE" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>n_steps</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,37 +146,6 @@
   </si>
   <si>
     <t>去Garch参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eGarch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eGarch,去LSTM3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Garch(1,1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ret[i] = (math.log(price[i])-math.log(price[i-1])) * 100</t>
-  </si>
-  <si>
-    <t>SSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2347,16 +2315,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1312109</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>713705</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>113800</xdr:rowOff>
+      <xdr:colOff>713704</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179613</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2379,145 +2347,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5217359" y="3571874"/>
-          <a:ext cx="716046" cy="532901"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>637907</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64982356-3A45-4165-B5B0-EC68E4997D10}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5524500" y="7296150"/>
-          <a:ext cx="599807" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>40319</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3580951-44BE-4150-BD32-101159CDF8BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="114300" y="2857500"/>
-          <a:ext cx="1571625" cy="1164269"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>179352</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47F4E9DC-748A-4727-9582-97C477B85C98}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5562600" y="7667626"/>
-          <a:ext cx="619125" cy="474626"/>
+          <a:off x="5372099" y="3571874"/>
+          <a:ext cx="561305" cy="417739"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2529,2046 +2360,154 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>28882</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>48824</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>179973</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7F50AD1-8B02-478E-932C-5D0D470CB702}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4143682" y="3105150"/>
-          <a:ext cx="647394" cy="332373"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>65651</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>132736</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7C48C41-0899-4DF0-9627-A8D1E4185932}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4143375" y="3504176"/>
-          <a:ext cx="561975" cy="429035"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1338</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>599936</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613BA402-2BF5-4054-9A2A-F637059ACAF5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4116138" y="4391025"/>
-          <a:ext cx="598598" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>48238</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>619126</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>170227</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FAE3D66-2A4E-4EC3-A59C-3AC76E81B251}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4163038" y="4810124"/>
-          <a:ext cx="570888" cy="427403"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63532</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>67381</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="图片 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D476CFCB-84A2-436E-8FD6-7148D51FBA52}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4178332" y="6105526"/>
-          <a:ext cx="574643" cy="295980"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>16933</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>100686</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E99FE4AD-FB6C-4A4A-B1C4-9160EF8D8500}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4131733" y="6543675"/>
-          <a:ext cx="573617" cy="434061"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>36202</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>652278</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="图片 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B90E959-FDAA-4534-B623-A939C297E7A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4151002" y="7334249"/>
-          <a:ext cx="616076" cy="323851"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>150844</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>52532</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="图片 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5A92A0F-7F87-49EB-A3C5-AD0E980F7C20}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4152901" y="7751794"/>
-          <a:ext cx="571500" cy="444613"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>68207</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>35758</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="图片 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E244252F-2616-40B6-BB5D-0C52817D0B25}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6858000" y="3144782"/>
-          <a:ext cx="657226" cy="329501"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>663082</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>18550</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="图片 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AC5E65F-7FCA-40F8-875C-D9BDDA9EF02B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6905625" y="3543300"/>
-          <a:ext cx="615457" cy="456700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57614</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>667013</xdr:colOff>
+      <xdr:colOff>674513</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="图片 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1ACCC5D-C5FE-41AE-AFBF-0D6B7781B757}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6867525" y="4401014"/>
-          <a:ext cx="657488" cy="332911"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+        <xdr:cNvPr id="39" name="图片 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4250593-7387-4241-A0B6-4527C0B958A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5268524" y="4429125"/>
+          <a:ext cx="625689" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63515</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>27410</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>666088</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>656573</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>161432</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="图片 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E38321-8A1D-4F75-85A1-EE52D8FDDEA9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6858000" y="4913735"/>
-          <a:ext cx="666088" cy="495972"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>135685</xdr:colOff>
+      <xdr:rowOff>94748</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="图片 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5163D258-485C-452A-BBBF-100FB3377B02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5283215" y="4895850"/>
+          <a:ext cx="593058" cy="456698"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:rowOff>61789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>712588</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>175773</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="图片 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{430EC4D4-DF9B-4151-86B9-99B3A916D67E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="6043489"/>
+          <a:ext cx="598288" cy="294959"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1304925</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>4657</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="图片 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3859BA8F-4C3C-4583-88A6-2C374AB3AF96}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6993685" y="6067425"/>
-          <a:ext cx="540590" cy="271357"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>130016</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>630715</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="图片 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B24AAA68-EA64-4B5C-98B9-DE4642C50E8F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6988016" y="6543674"/>
-          <a:ext cx="500699" cy="361951"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>24489</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>625021</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="图片 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4B57908-C02D-4E46-8249-6D2902DCE5B3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6896100" y="7263489"/>
-          <a:ext cx="586921" cy="299361"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="图片 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C63616-CF72-49E7-AF0F-75E63A8D949F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6905625" y="7620000"/>
-          <a:ext cx="600075" cy="450056"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>22892</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>166520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="图片 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDB79E42-8C59-4D82-9F68-F12CE2C75ECF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4829175" y="3099467"/>
-          <a:ext cx="628650" cy="324603"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>4407</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>627982</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66165</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="图片 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF410687-FB47-4970-A8F8-47F4021C893B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4805007" y="3571875"/>
-          <a:ext cx="623575" cy="475740"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38954</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>639549</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="图片 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F8A5F36-0667-4811-9127-C9D06084B597}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4867274" y="4382354"/>
-          <a:ext cx="572875" cy="294421"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>113104</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>564457</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="图片 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12C9C3D5-AC79-404B-BB03-754A8520788C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4913704" y="4819649"/>
-          <a:ext cx="451353" cy="342901"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>94899</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>102325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>640546</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="图片 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{976F9968-D82D-4451-90FD-4E419523BAAE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4895499" y="6074500"/>
-          <a:ext cx="545647" cy="278675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>72901</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>647026</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>123321</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="图片 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C96BC81E-0E35-44CD-A1E5-151315C58C00}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4895850" y="6588001"/>
-          <a:ext cx="551776" cy="412370"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>79291</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>65487</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="图片 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E47E7882-EBA3-45B9-B3FE-54D72430634C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4810125" y="7318291"/>
-          <a:ext cx="666750" cy="348146"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>674129</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>75692</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="图片 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0E4904-DF63-4E02-94B8-D481688F4E96}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4819651" y="7724774"/>
-          <a:ext cx="655078" cy="494793"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9756</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38782</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>173380</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="图片 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA297EFF-81C4-495F-9E1F-858893027836}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6181956" y="3115357"/>
-          <a:ext cx="618894" cy="315573"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>44924</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>27899</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="图片 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44A740D4-8BA4-4EEF-B70D-D6BB0641619D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6217124" y="3524250"/>
-          <a:ext cx="668775" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>680533</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>98038</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>7775</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="图片 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A04451E0-8A94-4864-B069-739704F6947E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6166933" y="4441438"/>
-          <a:ext cx="698842" cy="368688"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>71707</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>599408</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>170945</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="图片 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D649F37-C9AD-4AEC-99ED-32EE5FD21508}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6243907" y="5019675"/>
-          <a:ext cx="527701" cy="399545"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>21234</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>80808</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>175347</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="图片 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E7CA94C-7FDF-41C7-9D27-2E379EEC0826}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6193434" y="6052983"/>
-          <a:ext cx="540741" cy="275514"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>49782</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>641051</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="图片 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E764DAB-9590-4E6D-BC0D-D831BEF5F745}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6221982" y="6486525"/>
-          <a:ext cx="591269" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>659622</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>6428</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="图片 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD97FB7-0FF5-42F1-A5E8-7BA4F2C79003}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6200775" y="7277099"/>
-          <a:ext cx="631047" cy="330279"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>138603</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>561306</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>9023</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="图片 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{355578BD-5ED9-4F6C-9801-486637B93C04}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6181725" y="7739553"/>
-          <a:ext cx="551781" cy="413345"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>86148</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>77402</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="图片 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AD93B23-52DF-4583-97A9-42221DB50A87}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7629948" y="3163502"/>
-          <a:ext cx="618702" cy="313123"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>8039</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>65984</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104271</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="图片 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{605EB29E-FA43-4870-97B3-D2A4E74320CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7551839" y="3543300"/>
-          <a:ext cx="743745" cy="542421"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>71568</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>163171</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="图片 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1589CD30-08E8-493A-AA79-65302D54BFFB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7615368" y="4381499"/>
-          <a:ext cx="623757" cy="306047"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>56182</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>56470</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>37586</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="图片 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C1639FD-86F3-44D6-A65E-7653541536A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7591425" y="4942507"/>
-          <a:ext cx="694645" cy="524329"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>16695</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>112488</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>16026</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="图片 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D245F87-904E-426D-B40C-5DCABD165C1F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7620000" y="5988870"/>
-          <a:ext cx="722088" cy="361281"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>21467</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>65981</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>151900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="图片 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{456A7202-992F-4939-8A10-020B05F580A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="6536567"/>
-          <a:ext cx="685106" cy="492383"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>54001</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>98764</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>167691</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="图片 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B85756-CC39-4BF1-A09C-F78D07B15AD7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7597801" y="7337764"/>
-          <a:ext cx="488924" cy="249902"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>664169</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>156625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="图片 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9296277-6092-4B0B-9330-1941488177ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7522169" y="7629525"/>
-          <a:ext cx="650281" cy="490000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>44186</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>69719</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>579273</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="图片 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B64CDD-6025-4CFC-958D-0D3A0D978237}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5530586" y="3146294"/>
-          <a:ext cx="535087" cy="273182"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>55191</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>561313</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47127</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="图片 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7F1B589-5754-44A8-970B-07211908BD62}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5541591" y="3648075"/>
-          <a:ext cx="506122" cy="380502"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>30208</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47412</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>664993</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="图片 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4DD859B-5498-46A8-87A4-465B8C19952B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5516608" y="4390812"/>
-          <a:ext cx="634785" cy="324063"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>14736</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>16057</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>675611</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="图片 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10251656-1030-4814-B552-0B56BF95211C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5501136" y="4902382"/>
-          <a:ext cx="660875" cy="507818"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>82265</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>68442</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>655492</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="图片 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BEE83EB-63A5-42ED-B0AA-0CF2AFD18333}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5568665" y="6040617"/>
-          <a:ext cx="573227" cy="293508"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>32474</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:rowOff>63105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>685139</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>104275</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="图片 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9414AC4-11BB-4402-828A-D89F1A0D3F71}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5518874" y="6486525"/>
-          <a:ext cx="652665" cy="494800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>661988</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="图片 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD1409C1-C2F0-4E0B-838C-2236B7C54507}"/>
+      <xdr:rowOff>47123</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="图片 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87900413-DCB7-4CCE-AFE2-7EAC6C5B7470}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4584,8 +2523,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9610725" y="3143250"/>
-          <a:ext cx="652463" cy="504825"/>
+          <a:off x="5210175" y="6406755"/>
+          <a:ext cx="694664" cy="526943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30504</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>72890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>693563</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="图片 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C731E4E-D837-4640-B17F-B0EAF3E0D749}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5250204" y="7321415"/>
+          <a:ext cx="663059" cy="336685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>26566</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>637517</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>94747</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="图片 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE2EC5F-B740-4702-821A-BCA3E2D55B31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5246266" y="7781924"/>
+          <a:ext cx="610951" cy="466223"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4862,8 +2889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4880,7 +2907,7 @@
         <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
@@ -5258,13 +3285,13 @@
         <v>31</v>
       </c>
       <c r="M16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="O16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:41" x14ac:dyDescent="0.2">
@@ -5335,7 +3362,9 @@
       <c r="F24" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="5">
+        <v>2.72140348229249E-2</v>
+      </c>
       <c r="H24" s="5">
         <v>2.9597495618960499E-2</v>
       </c>
@@ -5423,7 +3452,9 @@
       <c r="F33" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="5"/>
+      <c r="G33" s="5">
+        <v>3.4460830001393199E-3</v>
+      </c>
       <c r="H33" s="5">
         <v>7.37721935742463E-4</v>
       </c>
@@ -5496,6 +3527,9 @@
     <row r="40" spans="6:42" x14ac:dyDescent="0.2">
       <c r="F40" t="s">
         <v>25</v>
+      </c>
+      <c r="G40">
+        <v>5.4330079366561597E-2</v>
       </c>
       <c r="H40">
         <v>5.0355192713577697E-2</v>
@@ -5686,638 +3720,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C03E46-EFC4-4C4E-B03A-7F42F77C9841}">
-  <dimension ref="A1:S40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2">
-        <v>252</v>
-      </c>
-      <c r="H2">
-        <v>252</v>
-      </c>
-      <c r="I2">
-        <v>126</v>
-      </c>
-      <c r="J2">
-        <v>126</v>
-      </c>
-      <c r="K2">
-        <v>66</v>
-      </c>
-      <c r="L2">
-        <v>66</v>
-      </c>
-      <c r="M2">
-        <v>252</v>
-      </c>
-      <c r="N2">
-        <v>252</v>
-      </c>
-      <c r="O2">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>252</v>
-      </c>
-      <c r="H3">
-        <v>252</v>
-      </c>
-      <c r="I3">
-        <v>126</v>
-      </c>
-      <c r="J3">
-        <v>126</v>
-      </c>
-      <c r="K3">
-        <v>66</v>
-      </c>
-      <c r="L3">
-        <v>66</v>
-      </c>
-      <c r="M3">
-        <v>252</v>
-      </c>
-      <c r="N3">
-        <v>252</v>
-      </c>
-      <c r="O3">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
-      <c r="K4">
-        <v>10</v>
-      </c>
-      <c r="L4">
-        <v>10</v>
-      </c>
-      <c r="M4">
-        <v>10</v>
-      </c>
-      <c r="N4">
-        <v>10</v>
-      </c>
-      <c r="O4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2">
-        <v>20120903</v>
-      </c>
-      <c r="D5" s="2">
-        <v>20180928</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>0.3</v>
-      </c>
-      <c r="H5">
-        <v>0.3</v>
-      </c>
-      <c r="I5">
-        <v>0.3</v>
-      </c>
-      <c r="J5">
-        <v>0.3</v>
-      </c>
-      <c r="K5">
-        <v>0.3</v>
-      </c>
-      <c r="L5">
-        <v>0.3</v>
-      </c>
-      <c r="M5">
-        <v>0.3</v>
-      </c>
-      <c r="N5">
-        <v>0.3</v>
-      </c>
-      <c r="O5">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="K6">
-        <v>4</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="S6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>0.8</v>
-      </c>
-      <c r="H7">
-        <v>0.8</v>
-      </c>
-      <c r="I7">
-        <v>0.8</v>
-      </c>
-      <c r="J7">
-        <v>0.8</v>
-      </c>
-      <c r="K7">
-        <v>0.8</v>
-      </c>
-      <c r="L7">
-        <v>0.8</v>
-      </c>
-      <c r="M7">
-        <v>0.8</v>
-      </c>
-      <c r="N7">
-        <v>0.8</v>
-      </c>
-      <c r="O7">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-      <c r="O8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>0.8</v>
-      </c>
-      <c r="H9">
-        <v>0.8</v>
-      </c>
-      <c r="I9">
-        <v>0.8</v>
-      </c>
-      <c r="J9">
-        <v>0.8</v>
-      </c>
-      <c r="K9">
-        <v>0.8</v>
-      </c>
-      <c r="L9">
-        <v>0.8</v>
-      </c>
-      <c r="M9">
-        <v>0.8</v>
-      </c>
-      <c r="N9">
-        <v>0.8</v>
-      </c>
-      <c r="O9">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
-      <c r="L10">
-        <v>5</v>
-      </c>
-      <c r="M10">
-        <v>5</v>
-      </c>
-      <c r="N10">
-        <v>5</v>
-      </c>
-      <c r="O10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>150</v>
-      </c>
-      <c r="H12">
-        <v>150</v>
-      </c>
-      <c r="I12">
-        <v>150</v>
-      </c>
-      <c r="J12">
-        <v>150</v>
-      </c>
-      <c r="K12">
-        <v>150</v>
-      </c>
-      <c r="L12">
-        <v>150</v>
-      </c>
-      <c r="M12">
-        <v>150</v>
-      </c>
-      <c r="N12">
-        <v>150</v>
-      </c>
-      <c r="O12">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13">
-        <v>1E-4</v>
-      </c>
-      <c r="H13">
-        <v>1E-4</v>
-      </c>
-      <c r="I13">
-        <v>1E-4</v>
-      </c>
-      <c r="J13">
-        <v>1E-4</v>
-      </c>
-      <c r="K13">
-        <v>1E-4</v>
-      </c>
-      <c r="L13">
-        <v>1E-4</v>
-      </c>
-      <c r="M13">
-        <v>1E-4</v>
-      </c>
-      <c r="N13">
-        <v>1E-4</v>
-      </c>
-      <c r="O13">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N15" t="s">
-        <v>11</v>
-      </c>
-      <c r="O15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" t="s">
-        <v>34</v>
-      </c>
-      <c r="O16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <v>9.0034503842168195E-3</v>
-      </c>
-      <c r="H17">
-        <v>4.1387825092671004E-3</v>
-      </c>
-      <c r="I17">
-        <v>9.68920487175862E-3</v>
-      </c>
-      <c r="J17">
-        <v>1.32474598375433E-2</v>
-      </c>
-      <c r="K17">
-        <v>5.8547868711302797E-2</v>
-      </c>
-      <c r="L17">
-        <v>4.3194464159976896E-3</v>
-      </c>
-      <c r="O17">
-        <v>0.45063380845102702</v>
-      </c>
-    </row>
-    <row r="19" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F19" s="8"/>
-      <c r="M19" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24">
-        <v>4.5254430051955903E-2</v>
-      </c>
-      <c r="H24">
-        <v>2.7244015828157699E-2</v>
-      </c>
-      <c r="I24">
-        <v>0.15942148163634901</v>
-      </c>
-      <c r="J24">
-        <v>5.4271215787120401E-2</v>
-      </c>
-      <c r="K24">
-        <v>7.4684130633556806E-2</v>
-      </c>
-      <c r="L24">
-        <v>5.8049792042158099E-2</v>
-      </c>
-      <c r="O24">
-        <v>0.51850761222165598</v>
-      </c>
-    </row>
-    <row r="33" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33">
-        <v>5.2336927952112396E-3</v>
-      </c>
-      <c r="H33">
-        <v>3.2819105705523999E-3</v>
-      </c>
-      <c r="I33">
-        <v>3.8897511035583303E-2</v>
-      </c>
-      <c r="J33">
-        <v>1.21717030532315E-2</v>
-      </c>
-      <c r="K33">
-        <v>8.4857368746132904E-3</v>
-      </c>
-      <c r="L33">
-        <v>5.0510381396770901E-3</v>
-      </c>
-      <c r="O33">
-        <v>0.800753545640148</v>
-      </c>
-    </row>
-    <row r="40" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40">
-        <v>9.6819522555119497E-2</v>
-      </c>
-      <c r="H40">
-        <v>8.0998642251754197E-2</v>
-      </c>
-      <c r="I40">
-        <v>1.71986820430781E-2</v>
-      </c>
-      <c r="J40">
-        <v>5.6345200116295797E-2</v>
-      </c>
-      <c r="K40">
-        <v>3.9354814504456097E-2</v>
-      </c>
-      <c r="L40">
-        <v>4.4948330248441699E-2</v>
-      </c>
-      <c r="O40">
-        <v>0.69425710613948199</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>